--- a/assets/docs/1_Carga_Masiva_2015-08-06.xlsx
+++ b/assets/docs/1_Carga_Masiva_2015-08-06.xlsx
@@ -16,16 +16,18 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Responsabilidades v02'!$A$1:$W$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$W$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$W$51</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$W$51</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Responsabilidades v02'!$A$1:$AD$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$AD$59</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$AD$59</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Responsabilidades v02'!$A$1:$AD$59</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="175">
   <si>
     <t>Dominio</t>
   </si>
@@ -37,63 +39,6 @@
   </si>
   <si>
     <t>Métrica</t>
-  </si>
-  <si>
-    <t>Conusltoria de Negocios</t>
-  </si>
-  <si>
-    <t>Consultoiría SAP</t>
-  </si>
-  <si>
-    <t>Consultoiría SAP BW</t>
-  </si>
-  <si>
-    <t>Consulotía BPC Planeación</t>
-  </si>
-  <si>
-    <t>Consulotía BPC Consolidación</t>
-  </si>
-  <si>
-    <t>Gestión Financiera Gubernamnetal</t>
-  </si>
-  <si>
-    <t>Soporte Aplicativo</t>
-  </si>
-  <si>
-    <t>Preventa Sector Público</t>
-  </si>
-  <si>
-    <t>Adminstración de Ventas y Licitaciones</t>
-  </si>
-  <si>
-    <t>PMO</t>
-  </si>
-  <si>
-    <t>Preventa Iniciatica Privada</t>
-  </si>
-  <si>
-    <t>Comercial Iniciativa Privada</t>
-  </si>
-  <si>
-    <t>Mercadotecnia</t>
-  </si>
-  <si>
-    <t>Arquitectura de Soluciones</t>
-  </si>
-  <si>
-    <t>Capital Humano</t>
-  </si>
-  <si>
-    <t>Project Controlling</t>
-  </si>
-  <si>
-    <t>Tesorería</t>
-  </si>
-  <si>
-    <t>Gestión Administrativa</t>
-  </si>
-  <si>
-    <t>Finanzas</t>
   </si>
   <si>
     <t>Observaciones</t>
@@ -1191,14 +1136,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:AD59"/>
+  <dimension ref="A1:AD65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="topRight" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB1" activeCellId="0" sqref="AB1"/>
+      <selection pane="bottomRight" activeCell="W1" activeCellId="0" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1226,62 +1171,62 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="I1" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="P1" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R1" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="S1" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="T1" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="U1" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="V1" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W1" s="6" t="n">
         <v>18</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="X1" s="7" t="n">
         <v>8</v>
@@ -1302,78 +1247,78 @@
         <v>3</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="132.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X2" s="11" t="n">
         <v>0</v>
@@ -1394,78 +1339,78 @@
         <v>0.1</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X3" s="12" t="n">
         <v>0.3</v>
@@ -1489,73 +1434,73 @@
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X4" s="11" t="n">
         <v>0.2</v>
@@ -1579,73 +1524,73 @@
     </row>
     <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X5" s="11" t="n">
         <v>0.2</v>
@@ -1669,73 +1614,73 @@
     </row>
     <row r="6" customFormat="false" ht="106.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X6" s="11" t="n">
         <v>0</v>
@@ -1756,78 +1701,78 @@
         <v>0</v>
       </c>
       <c r="AD6" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="132.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X7" s="11" t="n">
         <v>0</v>
@@ -1848,78 +1793,78 @@
         <v>0</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X8" s="11" t="n">
         <v>0</v>
@@ -1940,78 +1885,78 @@
         <v>0</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="210.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X9" s="11" t="n">
         <v>0.35</v>
@@ -2032,78 +1977,78 @@
         <v>0</v>
       </c>
       <c r="AD9" s="8" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="195" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X10" s="11" t="n">
         <v>0</v>
@@ -2127,73 +2072,73 @@
     </row>
     <row r="11" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X11" s="11" t="n">
         <v>0</v>
@@ -2214,78 +2159,78 @@
         <v>0.05</v>
       </c>
       <c r="AD11" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X12" s="11" t="n">
         <v>0</v>
@@ -2309,73 +2254,73 @@
     </row>
     <row r="13" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X13" s="12" t="n">
         <v>0.05</v>
@@ -2399,73 +2344,73 @@
     </row>
     <row r="14" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X14" s="11" t="n">
         <v>0.05</v>
@@ -2486,78 +2431,78 @@
         <v>0.1</v>
       </c>
       <c r="AD14" s="8" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X15" s="11" t="n">
         <v>0</v>
@@ -2581,73 +2526,73 @@
     </row>
     <row r="16" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X16" s="11" t="n">
         <v>0</v>
@@ -2671,73 +2616,73 @@
     </row>
     <row r="17" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X17" s="11" t="n">
         <v>0</v>
@@ -2761,73 +2706,73 @@
     </row>
     <row r="18" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X18" s="11" t="n">
         <v>0</v>
@@ -2848,21 +2793,21 @@
         <v>0.4</v>
       </c>
       <c r="AD18" s="8" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2902,78 +2847,78 @@
         <v>0.1</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X20" s="12" t="n">
         <v>0.15</v>
@@ -2994,78 +2939,78 @@
         <v>0</v>
       </c>
       <c r="AD20" s="8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X21" s="12" t="n">
         <v>0</v>
@@ -3089,73 +3034,73 @@
     </row>
     <row r="22" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X22" s="12" t="n">
         <v>0.05</v>
@@ -3179,73 +3124,73 @@
     </row>
     <row r="23" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X23" s="12" t="n">
         <v>0.05</v>
@@ -3269,73 +3214,73 @@
     </row>
     <row r="24" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X24" s="12" t="n">
         <v>0</v>
@@ -3359,73 +3304,73 @@
     </row>
     <row r="25" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X25" s="12" t="n">
         <v>0</v>
@@ -3449,73 +3394,73 @@
     </row>
     <row r="26" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X26" s="11" t="n">
         <v>0</v>
@@ -3539,73 +3484,73 @@
     </row>
     <row r="27" customFormat="false" ht="210" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X27" s="12" t="n">
         <v>0</v>
@@ -3629,73 +3574,73 @@
     </row>
     <row r="28" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X28" s="11" t="n">
         <v>0</v>
@@ -3719,73 +3664,73 @@
     </row>
     <row r="29" customFormat="false" ht="180" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X29" s="12" t="n">
         <v>0.2</v>
@@ -3809,16 +3754,16 @@
     </row>
     <row r="30" customFormat="false" ht="432.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3858,78 +3803,78 @@
         <v>0.05</v>
       </c>
       <c r="AD30" s="8" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X31" s="11" t="n">
         <v>0.15</v>
@@ -3953,73 +3898,73 @@
     </row>
     <row r="32" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X32" s="11" t="n">
         <v>0</v>
@@ -4043,73 +3988,73 @@
     </row>
     <row r="33" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X33" s="11" t="n">
         <v>0</v>
@@ -4133,73 +4078,73 @@
     </row>
     <row r="34" customFormat="false" ht="330" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X34" s="11" t="n">
         <v>0.3</v>
@@ -4223,73 +4168,73 @@
     </row>
     <row r="35" customFormat="false" ht="252" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="P35" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X35" s="11" t="n">
         <v>0</v>
@@ -4310,78 +4255,78 @@
         <v>0.3</v>
       </c>
       <c r="AD35" s="8" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W36" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X36" s="12" t="n">
         <v>0.05</v>
@@ -4405,73 +4350,73 @@
     </row>
     <row r="37" customFormat="false" ht="105.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X37" s="12" t="n">
         <v>0.2</v>
@@ -4495,73 +4440,73 @@
     </row>
     <row r="38" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W38" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X38" s="12" t="n">
         <v>0.1</v>
@@ -4585,73 +4530,73 @@
     </row>
     <row r="39" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V39" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X39" s="12" t="n">
         <v>0</v>
@@ -4675,73 +4620,73 @@
     </row>
     <row r="40" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X40" s="11" t="n">
         <v>0</v>
@@ -4765,73 +4710,73 @@
     </row>
     <row r="41" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V41" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X41" s="11" t="n">
         <v>0</v>
@@ -4855,73 +4800,73 @@
     </row>
     <row r="42" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W42" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X42" s="11" t="n">
         <v>0</v>
@@ -4945,73 +4890,73 @@
     </row>
     <row r="43" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X43" s="11" t="n">
         <v>0</v>
@@ -5035,73 +4980,73 @@
     </row>
     <row r="44" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X44" s="11" t="n">
         <v>0</v>
@@ -5125,73 +5070,73 @@
     </row>
     <row r="45" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X45" s="11" t="n">
         <v>0</v>
@@ -5215,73 +5160,73 @@
     </row>
     <row r="46" customFormat="false" ht="300" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W46" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X46" s="11" t="n">
         <v>0</v>
@@ -5305,73 +5250,73 @@
     </row>
     <row r="47" customFormat="false" ht="119.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U47" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="X47" s="11" t="n">
         <v>0</v>
@@ -5395,73 +5340,73 @@
     </row>
     <row r="48" customFormat="false" ht="145.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T48" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V48" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W48" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X48" s="11" t="n">
         <v>0</v>
@@ -5482,78 +5427,78 @@
         <v>0</v>
       </c>
       <c r="AD48" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="119.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V49" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W49" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X49" s="11" t="n">
         <v>0</v>
@@ -5574,78 +5519,78 @@
         <v>0</v>
       </c>
       <c r="AD49" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="132.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T50" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V50" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W50" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X50" s="11" t="n">
         <v>0</v>
@@ -5666,78 +5611,78 @@
         <v>0</v>
       </c>
       <c r="AD50" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="132.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="P51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="Q51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="R51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="S51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="U51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="V51" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="X51" s="11" t="n">
         <v>0</v>
@@ -5758,7 +5703,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,7 +5793,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="14" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E53" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$53,E2:E51,"SÍ")</f>
@@ -5935,7 +5880,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="14" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E54" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$54,E2:E51,"SÍ")</f>
@@ -6022,7 +5967,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D55" s="14" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E55" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$55,E2:E51,"SÍ")</f>
@@ -6109,7 +6054,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D56" s="14" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E56" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$56,E2:E51,"SÍ")</f>
@@ -6196,7 +6141,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D57" s="14" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E57" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$57,E2:E51,"SÍ")</f>
@@ -6283,7 +6228,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="14" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E58" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$58,E2:E51,"SÍ")</f>
@@ -6370,7 +6315,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D59" s="14" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="E59" s="15" t="n">
         <f aca="false">COUNTIFS($A$2:$A$51,$D$59,E2:E51,"SÍ")</f>
@@ -6455,6 +6400,7 @@
       <c r="AB59" s="17"/>
       <c r="AC59" s="17"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:AD59"/>
   <printOptions headings="true" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
